--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/153.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/153.xlsx
@@ -479,13 +479,13 @@
         <v>-0.7376624587788312</v>
       </c>
       <c r="E2" t="n">
-        <v>-5.903647041744077</v>
+        <v>-5.966324109777927</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.781290048761363</v>
+        <v>-3.731524847863036</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.784946662146683</v>
+        <v>-8.348331368455627</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.4961938227313231</v>
       </c>
       <c r="E3" t="n">
-        <v>-6.575073910804975</v>
+        <v>-6.647763664902266</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.752694247596778</v>
+        <v>-3.736624082025228</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.687547867344004</v>
+        <v>-8.259551892759319</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.235755468220994</v>
       </c>
       <c r="E4" t="n">
-        <v>-7.076989133776197</v>
+        <v>-7.125678753163803</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.870621982233633</v>
+        <v>-3.838056307493113</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.288037782207182</v>
+        <v>-7.819898172238259</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.02809529899421305</v>
       </c>
       <c r="E5" t="n">
-        <v>-7.628317549151329</v>
+        <v>-7.67093013300336</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.621747087673328</v>
+        <v>-3.580146528242748</v>
       </c>
       <c r="G5" t="n">
-        <v>-6.894213612056582</v>
+        <v>-7.427042025447308</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.2962414690232181</v>
       </c>
       <c r="E6" t="n">
-        <v>-8.401132642618309</v>
+        <v>-8.43010000830478</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.638350154993371</v>
+        <v>-3.579339842109707</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.476281749045224</v>
+        <v>-7.029052421446096</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.5642260175327026</v>
       </c>
       <c r="E7" t="n">
-        <v>-9.15505661355153</v>
+        <v>-9.161270541279379</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.572099222939806</v>
+        <v>-3.502714437484549</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.043883314714666</v>
+        <v>-6.572282287883967</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.8311523420367291</v>
       </c>
       <c r="E8" t="n">
-        <v>-9.792627110059041</v>
+        <v>-9.804883850274397</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.471654576859039</v>
+        <v>-3.390893072424471</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.49956573518669</v>
+        <v>-6.006545969272036</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>1.091984499685205</v>
       </c>
       <c r="E9" t="n">
-        <v>-10.44927940036812</v>
+        <v>-10.45246703284535</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.344408395133843</v>
+        <v>-3.271718641036552</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.994756220150254</v>
+        <v>-5.478181219150804</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>1.347655501971125</v>
       </c>
       <c r="E10" t="n">
-        <v>-10.75288183779667</v>
+        <v>-10.72233532289219</v>
       </c>
       <c r="F10" t="n">
-        <v>-3.193690091440589</v>
+        <v>-3.103033237107385</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.823548088677759</v>
+        <v>-5.270266424121512</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>1.598104701665978</v>
       </c>
       <c r="E11" t="n">
-        <v>-11.48459016152663</v>
+        <v>-11.4597246726015</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.238668954616207</v>
+        <v>-3.164116488902621</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.227133251975938</v>
+        <v>-4.648922541405291</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>1.845220050987604</v>
       </c>
       <c r="E12" t="n">
-        <v>-12.10576292900251</v>
+        <v>-12.06469038231356</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.911560172171528</v>
+        <v>-2.813164019967998</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.645629886218207</v>
+        <v>-4.085352052835405</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>2.09121206988829</v>
       </c>
       <c r="E13" t="n">
-        <v>-13.01169590144185</v>
+        <v>-12.98683530152359</v>
       </c>
       <c r="F13" t="n">
-        <v>-2.803713569694251</v>
+        <v>-2.658524732767478</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.882270132031841</v>
+        <v>-3.319914470730599</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>2.335991869084578</v>
       </c>
       <c r="E14" t="n">
-        <v>-13.52963728892282</v>
+        <v>-13.47493908009577</v>
       </c>
       <c r="F14" t="n">
-        <v>-2.630623170577995</v>
+        <v>-2.51172741258149</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.39089071885882</v>
+        <v>-2.81556941134652</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>2.581531965454062</v>
       </c>
       <c r="E15" t="n">
-        <v>-14.38199163510764</v>
+        <v>-14.31728074021715</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.408984933273273</v>
+        <v>-2.308193167704954</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.706072859989443</v>
+        <v>-2.11540007091503</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>2.829491792092723</v>
       </c>
       <c r="E16" t="n">
-        <v>-14.96880446232284</v>
+        <v>-14.93567655179262</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.092187066310918</v>
+        <v>-1.981191943411348</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.510561475381514</v>
+        <v>-1.914412998616156</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>3.079958187591591</v>
       </c>
       <c r="E17" t="n">
-        <v>-16.05079057203979</v>
+        <v>-15.98180179614075</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.711832110078668</v>
+        <v>-1.604611300480357</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.127859795853146</v>
+        <v>-1.53975862439073</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>3.331879190764067</v>
       </c>
       <c r="E18" t="n">
-        <v>-16.84686267117268</v>
+        <v>-16.7245788314174</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.507505846089692</v>
+        <v>-1.415773410245767</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.9744916504380237</v>
+        <v>-1.371004774365427</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>3.582814326586961</v>
       </c>
       <c r="E19" t="n">
-        <v>-17.68503400843658</v>
+        <v>-17.55382284214232</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.009188932172519</v>
+        <v>-0.9160582403646562</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.678437839611989</v>
+        <v>-1.050285923895806</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>3.8295235214533</v>
       </c>
       <c r="E20" t="n">
-        <v>-18.4362836926136</v>
+        <v>-18.31044065585921</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.7000325829431523</v>
+        <v>-0.6159367758253483</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.8671730607023737</v>
+        <v>-1.241988772154408</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>4.070967061543546</v>
       </c>
       <c r="E21" t="n">
-        <v>-18.93519217636167</v>
+        <v>-18.74916057606869</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.2764685840211089</v>
+        <v>-0.2021556796440017</v>
       </c>
       <c r="G21" t="n">
-        <v>-1.196198333838883</v>
+        <v>-1.531867767307529</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>4.303930925966794</v>
       </c>
       <c r="E22" t="n">
-        <v>-19.56286732297054</v>
+        <v>-19.33730810215856</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2159228535733632</v>
+        <v>0.2752118398484408</v>
       </c>
       <c r="G22" t="n">
-        <v>-1.326798374274782</v>
+        <v>-1.637440981591691</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>4.523736638192861</v>
       </c>
       <c r="E23" t="n">
-        <v>-19.99881517628648</v>
+        <v>-19.79694808275156</v>
       </c>
       <c r="F23" t="n">
-        <v>0.426722162654135</v>
+        <v>0.4632039318950544</v>
       </c>
       <c r="G23" t="n">
-        <v>-1.351913202550124</v>
+        <v>-1.642266431369336</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>4.724971541815228</v>
       </c>
       <c r="E24" t="n">
-        <v>-20.19989513971582</v>
+        <v>-20.00908697971387</v>
       </c>
       <c r="F24" t="n">
-        <v>0.539335546826654</v>
+        <v>0.5553177102745989</v>
       </c>
       <c r="G24" t="n">
-        <v>-1.862623748874926</v>
+        <v>-2.148097748840957</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>4.90001121214723</v>
       </c>
       <c r="E25" t="n">
-        <v>-20.76067889437157</v>
+        <v>-20.58187324622789</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8534053479572702</v>
+        <v>0.8514399671967704</v>
       </c>
       <c r="G25" t="n">
-        <v>-2.227451219297854</v>
+        <v>-2.471045986441891</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>5.045050086586066</v>
       </c>
       <c r="E26" t="n">
-        <v>-20.79812379796527</v>
+        <v>-20.59103035608962</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9059377267422714</v>
+        <v>0.8928694113870077</v>
       </c>
       <c r="G26" t="n">
-        <v>-2.711717127479513</v>
+        <v>-2.917598095652168</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>5.155354002288458</v>
       </c>
       <c r="E27" t="n">
-        <v>-21.05560823361822</v>
+        <v>-20.83886878119414</v>
       </c>
       <c r="F27" t="n">
-        <v>0.8380391993745565</v>
+        <v>0.8094580652305717</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.0586850558176</v>
+        <v>-3.247645171223863</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>5.228008125104979</v>
       </c>
       <c r="E28" t="n">
-        <v>-21.14094584848021</v>
+        <v>-20.94697450103537</v>
       </c>
       <c r="F28" t="n">
-        <v>0.8686883834232463</v>
+        <v>0.850946177503212</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.422158271338392</v>
+        <v>-3.613817118535191</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>5.261716770005379</v>
       </c>
       <c r="E29" t="n">
-        <v>-21.0151957028563</v>
+        <v>-20.81625223542779</v>
       </c>
       <c r="F29" t="n">
-        <v>0.7383523493581607</v>
+        <v>0.7105876793609507</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.728327437372073</v>
+        <v>-3.911313186386966</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>5.259011988238877</v>
       </c>
       <c r="E30" t="n">
-        <v>-20.66053247770969</v>
+        <v>-20.45974585469235</v>
       </c>
       <c r="F30" t="n">
-        <v>0.7537038309202737</v>
+        <v>0.7325344311865319</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.365761041687311</v>
+        <v>-4.519266079294707</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>5.226189677784534</v>
       </c>
       <c r="E31" t="n">
-        <v>-20.60700274152383</v>
+        <v>-20.40170356516834</v>
       </c>
       <c r="F31" t="n">
-        <v>0.7690553124823866</v>
+        <v>0.7263596155136184</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.546683629804366</v>
+        <v>-4.672511999538156</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>5.171182094537919</v>
       </c>
       <c r="E32" t="n">
-        <v>-20.46162812233612</v>
+        <v>-20.25945791037545</v>
       </c>
       <c r="F32" t="n">
-        <v>0.5318162542653387</v>
+        <v>0.4952660389282826</v>
       </c>
       <c r="G32" t="n">
-        <v>-5.044848984508665</v>
+        <v>-5.140741965196335</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>5.10223035635233</v>
       </c>
       <c r="E33" t="n">
-        <v>-20.06472387785936</v>
+        <v>-19.86287145134504</v>
       </c>
       <c r="F33" t="n">
-        <v>0.4330583155536568</v>
+        <v>0.3900301661179383</v>
       </c>
       <c r="G33" t="n">
-        <v>-5.128568338097717</v>
+        <v>-5.23112503514499</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>5.025753165315854</v>
       </c>
       <c r="E34" t="n">
-        <v>-19.77886853535771</v>
+        <v>-19.55501557794228</v>
       </c>
       <c r="F34" t="n">
-        <v>0.3862851868578815</v>
+        <v>0.3292744777827863</v>
       </c>
       <c r="G34" t="n">
-        <v>-5.433319692139992</v>
+        <v>-5.528982889504917</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>4.948726705463002</v>
       </c>
       <c r="E35" t="n">
-        <v>-19.20431244835787</v>
+        <v>-19.00311025975685</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1706066489239285</v>
+        <v>0.1301354500796066</v>
       </c>
       <c r="G35" t="n">
-        <v>-5.256782543182561</v>
+        <v>-5.353575101133742</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>4.875030435291554</v>
       </c>
       <c r="E36" t="n">
-        <v>-18.85424488966616</v>
+        <v>-18.62813810008507</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1112345495321134</v>
+        <v>0.08746908715203984</v>
       </c>
       <c r="G36" t="n">
-        <v>-5.395918789608093</v>
+        <v>-5.48230754094648</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>4.80713428357079</v>
       </c>
       <c r="E37" t="n">
-        <v>-18.38965723412383</v>
+        <v>-18.20366474588578</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1459024972254073</v>
+        <v>0.1345160002323624</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.974505953707492</v>
+        <v>-5.074598591293842</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>4.744235370387273</v>
       </c>
       <c r="E38" t="n">
-        <v>-17.95321070210747</v>
+        <v>-17.74294918378205</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.1070889411168405</v>
+        <v>-0.09187924075386811</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.807419255023807</v>
+        <v>-4.92254558872592</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>4.682955239724333</v>
       </c>
       <c r="E39" t="n">
-        <v>-17.42228411238797</v>
+        <v>-17.19565908807899</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.112290844423238</v>
+        <v>-0.1079689623528852</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.821964050452879</v>
+        <v>-4.923997623765394</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>4.620429710508347</v>
       </c>
       <c r="E40" t="n">
-        <v>-16.92756061851798</v>
+        <v>-16.7252290693307</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.2157324517134245</v>
+        <v>-0.183567675535991</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.630466540482687</v>
+        <v>-4.787770336425676</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>4.553789934495398</v>
       </c>
       <c r="E41" t="n">
-        <v>-16.19721632770389</v>
+        <v>-16.003870773138</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.4160203960303292</v>
+        <v>-0.3620750942607897</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.719832697003025</v>
+        <v>-4.89779254695873</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>4.482117249441682</v>
       </c>
       <c r="E42" t="n">
-        <v>-15.54140494657592</v>
+        <v>-15.36719496488714</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.5144018812132587</v>
+        <v>-0.4648713526445433</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.640205442161582</v>
+        <v>-4.886274046780279</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>4.403719984134307</v>
       </c>
       <c r="E43" t="n">
-        <v>-15.03598919468798</v>
+        <v>-14.88033788306601</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.6176968182974377</v>
+        <v>-0.567032040135598</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.232325377268602</v>
+        <v>-4.498341129904311</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>4.317487245835943</v>
       </c>
       <c r="E44" t="n">
-        <v>-14.4553951842075</v>
+        <v>-14.29846784179326</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.6681415911502662</v>
+        <v>-0.6083881492228317</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.407870057832049</v>
+        <v>-4.671490197102971</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>4.22190873406239</v>
       </c>
       <c r="E45" t="n">
-        <v>-13.93915028210935</v>
+        <v>-13.77883485793634</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.7963802412694452</v>
+        <v>-0.7466248183848518</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.497666446956677</v>
+        <v>-4.765838251620695</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>4.118386140774859</v>
       </c>
       <c r="E46" t="n">
-        <v>-12.98227385811676</v>
+        <v>-12.84105000575905</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.9569694498270005</v>
+        <v>-0.9140879705972895</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.368640666731924</v>
+        <v>-4.708817764531866</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>4.007727391831098</v>
       </c>
       <c r="E47" t="n">
-        <v>-12.60653901337374</v>
+        <v>-12.48639655862617</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.095646129607043</v>
+        <v>-1.040239014784296</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.542449749857617</v>
+        <v>-4.905839852261672</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>3.889722652972055</v>
       </c>
       <c r="E48" t="n">
-        <v>-11.84407394744402</v>
+        <v>-11.72178032967501</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.21025911758813</v>
+        <v>-1.15972145360483</v>
       </c>
       <c r="G48" t="n">
-        <v>-4.505395966813269</v>
+        <v>-4.922760705028065</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>3.763340935226061</v>
       </c>
       <c r="E49" t="n">
-        <v>-11.44839195468399</v>
+        <v>-11.31970351593306</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.312644699395063</v>
+        <v>-1.261891919109619</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.479968242098445</v>
+        <v>-4.88020190025157</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>3.625143094483169</v>
       </c>
       <c r="E50" t="n">
-        <v>-10.87332741096999</v>
+        <v>-10.75576635184815</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.555119883966577</v>
+        <v>-1.506840941155792</v>
       </c>
       <c r="G50" t="n">
-        <v>-4.701616257416901</v>
+        <v>-5.115812919181935</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>3.474478456845568</v>
       </c>
       <c r="E51" t="n">
-        <v>-10.46217171147618</v>
+        <v>-10.33319482132009</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.501252806306908</v>
+        <v>-1.468496460298578</v>
       </c>
       <c r="G51" t="n">
-        <v>-4.88053435271852</v>
+        <v>-5.298559106860349</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>3.30920643171119</v>
       </c>
       <c r="E52" t="n">
-        <v>-9.93791861613002</v>
+        <v>-9.790231496694252</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.616877818709446</v>
+        <v>-1.587069543841866</v>
       </c>
       <c r="G52" t="n">
-        <v>-4.884787788692736</v>
+        <v>-5.316389314903987</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>3.127030580181553</v>
       </c>
       <c r="E53" t="n">
-        <v>-9.37902690713177</v>
+        <v>-9.250074462010021</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.589152260767172</v>
+        <v>-1.54460851920271</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.02612408820838</v>
+        <v>-5.460649240526047</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>2.925726461375894</v>
       </c>
       <c r="E54" t="n">
-        <v>-8.868360361868769</v>
+        <v>-8.70426084638077</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.683466092236828</v>
+        <v>-1.640931732494668</v>
       </c>
       <c r="G54" t="n">
-        <v>-4.982421255825027</v>
+        <v>-5.397023705160016</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>2.703152760598902</v>
       </c>
       <c r="E55" t="n">
-        <v>-8.12028364314838</v>
+        <v>-7.979851809903114</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.843023720345464</v>
+        <v>-1.807901095013547</v>
       </c>
       <c r="G55" t="n">
-        <v>-5.154049841888077</v>
+        <v>-5.578063629441877</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>2.459423855407001</v>
       </c>
       <c r="E56" t="n">
-        <v>-7.768446263970845</v>
+        <v>-7.620382691006326</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.954620191089665</v>
+        <v>-1.903402955151864</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.179502011637236</v>
+        <v>-5.578987651739723</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>2.196654434552416</v>
       </c>
       <c r="E57" t="n">
-        <v>-7.421537003715161</v>
+        <v>-7.309314740091995</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.832580801677734</v>
+        <v>-1.795018561919226</v>
       </c>
       <c r="G57" t="n">
-        <v>-5.089700733505742</v>
+        <v>-5.462125720599856</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>1.916344482691047</v>
       </c>
       <c r="E58" t="n">
-        <v>-6.933345223019369</v>
+        <v>-6.7711621982232</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.876176075910015</v>
+        <v>-1.844607758570345</v>
       </c>
       <c r="G58" t="n">
-        <v>-5.320720974988074</v>
+        <v>-5.694984228664147</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>1.620922318209556</v>
       </c>
       <c r="E59" t="n">
-        <v>-6.424433831221592</v>
+        <v>-6.312079564413019</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.081837038773659</v>
+        <v>-2.021775589413608</v>
       </c>
       <c r="G59" t="n">
-        <v>-5.331251895779409</v>
+        <v>-5.66523462187897</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>1.313731504373803</v>
       </c>
       <c r="E60" t="n">
-        <v>-6.340108240781042</v>
+        <v>-6.211952703778601</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.110491508020647</v>
+        <v>-2.07378484446385</v>
       </c>
       <c r="G60" t="n">
-        <v>-5.236527387732932</v>
+        <v>-5.529682017486886</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.9986271298559214</v>
       </c>
       <c r="E61" t="n">
-        <v>-6.235136374341511</v>
+        <v>-6.09110134303533</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.181132768240701</v>
+        <v>-2.156956629283807</v>
       </c>
       <c r="G61" t="n">
-        <v>-5.217998051707324</v>
+        <v>-5.51084956303553</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.6834086815939694</v>
       </c>
       <c r="E62" t="n">
-        <v>-5.97597012032635</v>
+        <v>-5.847677691131635</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.193345507394255</v>
+        <v>-2.174869950444183</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.341152134684912</v>
+        <v>-5.639591780862001</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.3731292977234767</v>
       </c>
       <c r="E63" t="n">
-        <v>-5.698059413983437</v>
+        <v>-5.544451707231836</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.334911590232644</v>
+        <v>-2.321109923847343</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.203624371518594</v>
+        <v>-5.46601737006592</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.0735446242152261</v>
       </c>
       <c r="E64" t="n">
-        <v>-5.529755352589889</v>
+        <v>-5.389714639893978</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.521510315322187</v>
+        <v>-2.492586950697518</v>
       </c>
       <c r="G64" t="n">
-        <v>-5.019220810512296</v>
+        <v>-5.271166001385025</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.2097304111434825</v>
       </c>
       <c r="E65" t="n">
-        <v>-5.360126370335409</v>
+        <v>-5.210708542468754</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.340905512651482</v>
+        <v>-2.315785795369273</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.064517459134263</v>
+        <v>-5.326915346688455</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.4723014427029117</v>
       </c>
       <c r="E66" t="n">
-        <v>-5.333378613766517</v>
+        <v>-5.215568215294468</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.441648388151131</v>
+        <v>-2.412133453695566</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.1295754735123</v>
+        <v>-5.370491064893269</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.7077543698304872</v>
       </c>
       <c r="E67" t="n">
-        <v>-5.149043498856356</v>
+        <v>-5.01923058852603</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.567862989427407</v>
+        <v>-2.517995119384875</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.052549170324055</v>
+        <v>-5.281032017242459</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.9120405422482072</v>
       </c>
       <c r="E68" t="n">
-        <v>-5.257603896336202</v>
+        <v>-5.116536492198239</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.646928008479156</v>
+        <v>-2.582559344069354</v>
       </c>
       <c r="G68" t="n">
-        <v>-4.943871436679403</v>
+        <v>-5.162219372362691</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-1.082034510653645</v>
       </c>
       <c r="E69" t="n">
-        <v>-5.34137702900079</v>
+        <v>-5.224246202483242</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.630158714925638</v>
+        <v>-2.57900014707024</v>
       </c>
       <c r="G69" t="n">
-        <v>-4.725616392126586</v>
+        <v>-4.95246631075144</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-1.214838498901504</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.15528187161854</v>
+        <v>-5.02113241219726</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.615946371963516</v>
+        <v>-2.537135581268847</v>
       </c>
       <c r="G70" t="n">
-        <v>-4.789354374650556</v>
+        <v>-4.976153549021642</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-1.307740679571345</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.619845082126531</v>
+        <v>-5.512702496638091</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.7108028831954</v>
+        <v>-2.636206416420011</v>
       </c>
       <c r="G71" t="n">
-        <v>-4.601577398906087</v>
+        <v>-4.80524364696803</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-1.357678035673161</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.695546464453843</v>
+        <v>-5.574543544497698</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.690156607196418</v>
+        <v>-2.600350440058057</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.390929649038189</v>
+        <v>-4.563140026918401</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-1.362115060838996</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.903911048114891</v>
+        <v>-5.800806782298522</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.783404635169087</v>
+        <v>-2.708563718050353</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.373842570038322</v>
+        <v>-4.558221686010286</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-1.318645167658159</v>
       </c>
       <c r="E74" t="n">
-        <v>-6.050331914772126</v>
+        <v>-5.964114278674082</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.671529491033472</v>
+        <v>-2.594610745996299</v>
       </c>
       <c r="G74" t="n">
-        <v>-3.934907533526698</v>
+        <v>-4.101378217345152</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-1.225194814374857</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.516459607477532</v>
+        <v>-6.421559095183846</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.896506920028297</v>
+        <v>-2.804520255827292</v>
       </c>
       <c r="G75" t="n">
-        <v>-3.737758331618352</v>
+        <v>-3.923501480506185</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-1.080721002027562</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.706793533813397</v>
+        <v>-6.612621483542882</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.945607215992724</v>
+        <v>-2.853688997887856</v>
       </c>
       <c r="G76" t="n">
-        <v>-3.388937469677705</v>
+        <v>-3.54689639254086</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.885724853653851</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.297180225048312</v>
+        <v>-7.195694220504892</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.955443897808957</v>
+        <v>-2.857409532113579</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.111412994877278</v>
+        <v>-3.220809412531366</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.6448956051994419</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.950248873323945</v>
+        <v>-7.863689006745215</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.040815735719026</v>
+        <v>-2.945059647223629</v>
       </c>
       <c r="G78" t="n">
-        <v>-2.836914815327471</v>
+        <v>-2.930519740801425</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.3624621171009021</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.697704688172236</v>
+        <v>-8.592859935911246</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.053101809975583</v>
+        <v>-2.934817177837443</v>
       </c>
       <c r="G79" t="n">
-        <v>-2.469021937598988</v>
+        <v>-2.530422974840573</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.04429516852507427</v>
       </c>
       <c r="E80" t="n">
-        <v>-9.291323012946183</v>
+        <v>-9.188150301033676</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.131110803544078</v>
+        <v>-3.017949850602465</v>
       </c>
       <c r="G80" t="n">
-        <v>-2.150356470013472</v>
+        <v>-2.189194740564244</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.3027363111095838</v>
       </c>
       <c r="E81" t="n">
-        <v>-10.0288443658409</v>
+        <v>-9.908697022086468</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.084147003580493</v>
+        <v>-2.974765252947005</v>
       </c>
       <c r="G81" t="n">
-        <v>-1.783720067049786</v>
+        <v>-1.833143037467429</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.6718166701115744</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.91969964110268</v>
+        <v>-10.80296971314822</v>
       </c>
       <c r="F82" t="n">
-        <v>-3.231301221267766</v>
+        <v>-3.12012520511412</v>
       </c>
       <c r="G82" t="n">
-        <v>-1.727780050478545</v>
+        <v>-1.765713854758938</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>1.053025191780808</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.79792172262034</v>
+        <v>-11.71515572537034</v>
       </c>
       <c r="F83" t="n">
-        <v>-3.248886978968059</v>
+        <v>-3.124686648520952</v>
       </c>
       <c r="G83" t="n">
-        <v>-1.474314378470206</v>
+        <v>-1.496510469646</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>1.43867152401394</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.86792976551335</v>
+        <v>-12.75802000213823</v>
       </c>
       <c r="F84" t="n">
-        <v>-3.276231194374714</v>
+        <v>-3.176686125557459</v>
       </c>
       <c r="G84" t="n">
-        <v>-1.26420441935767</v>
+        <v>-1.242546118937236</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>1.822950262605552</v>
       </c>
       <c r="E85" t="n">
-        <v>-14.23124399737318</v>
+        <v>-14.12330450376543</v>
       </c>
       <c r="F85" t="n">
-        <v>-3.257071176463274</v>
+        <v>-3.139182553881354</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.126466428896075</v>
+        <v>-1.129126048631677</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>2.200419365741668</v>
       </c>
       <c r="E86" t="n">
-        <v>-15.44650443428223</v>
+        <v>-15.32654776179561</v>
       </c>
       <c r="F86" t="n">
-        <v>-3.17742925460123</v>
+        <v>-3.077517510268956</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.143998407520832</v>
+        <v>-1.163569102009092</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>2.566762649667407</v>
       </c>
       <c r="E87" t="n">
-        <v>-16.88561293959985</v>
+        <v>-16.77030082363679</v>
       </c>
       <c r="F87" t="n">
-        <v>-3.100921186140878</v>
+        <v>-2.99725957354168</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.9898675770344713</v>
+        <v>-0.9927374240653503</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>2.916941425099993</v>
       </c>
       <c r="E88" t="n">
-        <v>-18.26404398069218</v>
+        <v>-18.15299018971021</v>
       </c>
       <c r="F88" t="n">
-        <v>-3.109198274766565</v>
+        <v>-3.00985854423772</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.30673877909983</v>
+        <v>-1.307173900710985</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>3.246075088326696</v>
       </c>
       <c r="E89" t="n">
-        <v>-19.78190460862206</v>
+        <v>-19.66728673163411</v>
       </c>
       <c r="F89" t="n">
-        <v>-3.06077755075664</v>
+        <v>-2.983057008593292</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.201234010911805</v>
+        <v>-1.158812098327584</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>3.553162822705285</v>
       </c>
       <c r="E90" t="n">
-        <v>-21.55947417032934</v>
+        <v>-21.44817592900402</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.809854162319097</v>
+        <v>-2.731889169812404</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.397542303639041</v>
+        <v>-1.368477157815232</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>3.836127258964052</v>
       </c>
       <c r="E91" t="n">
-        <v>-23.17197619318896</v>
+        <v>-23.02837139448707</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.78183037495794</v>
+        <v>-2.701645773333668</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.53254733926203</v>
+        <v>-1.509583674008131</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>4.092857281173541</v>
       </c>
       <c r="E92" t="n">
-        <v>-25.00652712993012</v>
+        <v>-24.89310705962457</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.587819915458154</v>
+        <v>-2.521471203267251</v>
       </c>
       <c r="G92" t="n">
-        <v>-1.822499669518155</v>
+        <v>-1.800724032932916</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>4.320843780007913</v>
       </c>
       <c r="E93" t="n">
-        <v>-26.89468847147045</v>
+        <v>-26.77512047502974</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.481787134528503</v>
+        <v>-2.429983217766672</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.252341153257317</v>
+        <v>-2.227671224606865</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>4.51510535779458</v>
       </c>
       <c r="E94" t="n">
-        <v>-28.92763530687102</v>
+        <v>-28.78769481881588</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.659541646195797</v>
+        <v>-2.601078902081228</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.415819764873219</v>
+        <v>-2.399514926972058</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>4.675857167639544</v>
       </c>
       <c r="E95" t="n">
-        <v>-31.14076404584831</v>
+        <v>-30.98861570764648</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.540068985388996</v>
+        <v>-2.510084706274207</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.753190572731552</v>
+        <v>-2.736910179864726</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>4.7992188463235</v>
       </c>
       <c r="E96" t="n">
-        <v>-33.25770401922248</v>
+        <v>-33.10451676706143</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.665726239882444</v>
+        <v>-2.616127265217592</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.059340182737766</v>
+        <v>-3.044614494054619</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>4.884651377474526</v>
       </c>
       <c r="E97" t="n">
-        <v>-35.32172538226916</v>
+        <v>-35.1911057858058</v>
       </c>
       <c r="F97" t="n">
-        <v>-2.765486425001844</v>
+        <v>-2.735834598354004</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.391142411774683</v>
+        <v>-3.374158001919021</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>4.923634586490945</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.46545955777746</v>
+        <v>-37.31667974530694</v>
       </c>
       <c r="F98" t="n">
-        <v>-2.907722301781</v>
+        <v>-2.876442435846478</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.665156579644665</v>
+        <v>-3.635103854433739</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>4.919162446845153</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.81895901741419</v>
+        <v>-39.67576000628225</v>
       </c>
       <c r="F99" t="n">
-        <v>-2.840777130752334</v>
+        <v>-2.833194281101749</v>
       </c>
       <c r="G99" t="n">
-        <v>-3.86853437630146</v>
+        <v>-3.874758082043043</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>4.857716196217893</v>
       </c>
       <c r="E100" t="n">
-        <v>-42.06348006948394</v>
+        <v>-41.89360663688611</v>
       </c>
       <c r="F100" t="n">
-        <v>-2.857683316498126</v>
+        <v>-2.884915084746842</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.25256586569763</v>
+        <v>-4.290617006142829</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>4.754353599593175</v>
       </c>
       <c r="E101" t="n">
-        <v>-44.08240278868676</v>
+        <v>-43.91261491370911</v>
       </c>
       <c r="F101" t="n">
-        <v>-2.871871214425913</v>
+        <v>-2.915823386159478</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.555283392883269</v>
+        <v>-4.605156151932668</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>4.578414160918437</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.5589194391088</v>
+        <v>-46.37735883559562</v>
       </c>
       <c r="F102" t="n">
-        <v>-3.023816658842763</v>
+        <v>-3.104793279579475</v>
       </c>
       <c r="G102" t="n">
-        <v>-4.732319220541126</v>
+        <v>-4.78667030988062</v>
       </c>
     </row>
   </sheetData>
